--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N2">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O2">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P2">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q2">
-        <v>0.1211487371111111</v>
+        <v>2.694933184499111</v>
       </c>
       <c r="R2">
-        <v>1.090338634</v>
+        <v>24.254398660492</v>
       </c>
       <c r="S2">
-        <v>7.880341417249609E-06</v>
+        <v>0.0001331544374984383</v>
       </c>
       <c r="T2">
-        <v>7.880341417249607E-06</v>
+        <v>0.0001331544374984383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.877551</v>
       </c>
       <c r="O3">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P3">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q3">
-        <v>1.505866790376666</v>
+        <v>2.226583630758666</v>
       </c>
       <c r="R3">
-        <v>13.55280111339</v>
+        <v>20.039252676828</v>
       </c>
       <c r="S3">
-        <v>9.79518624794449E-05</v>
+        <v>0.0001100136703211087</v>
       </c>
       <c r="T3">
-        <v>9.79518624794449E-05</v>
+        <v>0.0001100136703211087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N4">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O4">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P4">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q4">
-        <v>139.3541834017666</v>
+        <v>261.4859157737151</v>
       </c>
       <c r="R4">
-        <v>1254.1876506159</v>
+        <v>2353.373241963436</v>
       </c>
       <c r="S4">
-        <v>0.009064548003672276</v>
+        <v>0.01291980455355313</v>
       </c>
       <c r="T4">
-        <v>0.009064548003672275</v>
+        <v>0.01291980455355313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N5">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O5">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P5">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q5">
-        <v>12.38375526798667</v>
+        <v>1.657689687534222</v>
       </c>
       <c r="R5">
-        <v>111.45379741188</v>
+        <v>14.919207187808</v>
       </c>
       <c r="S5">
-        <v>0.0008055240348885823</v>
+        <v>8.190508735436671E-05</v>
       </c>
       <c r="T5">
-        <v>0.0008055240348885823</v>
+        <v>8.190508735436671E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N6">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O6">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P6">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q6">
-        <v>1057.121182661219</v>
+        <v>1970.427115677875</v>
       </c>
       <c r="R6">
-        <v>9514.090643950969</v>
+        <v>17733.84404110088</v>
       </c>
       <c r="S6">
-        <v>0.0687623828149098</v>
+        <v>0.09735718708310867</v>
       </c>
       <c r="T6">
-        <v>0.06876238281490979</v>
+        <v>0.09735718708310868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H7">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J7">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N7">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O7">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P7">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q7">
-        <v>145.6573600030267</v>
+        <v>57.84994122856666</v>
       </c>
       <c r="R7">
-        <v>1310.91624002724</v>
+        <v>520.6494710571</v>
       </c>
       <c r="S7">
-        <v>0.009474549666220291</v>
+        <v>0.002858318131193003</v>
       </c>
       <c r="T7">
-        <v>0.00947454966622029</v>
+        <v>0.002858318131193004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N8">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O8">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P8">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q8">
-        <v>0.2477233430888889</v>
+        <v>3.726864361261889</v>
       </c>
       <c r="R8">
-        <v>2.2295100878</v>
+        <v>33.541779251357</v>
       </c>
       <c r="S8">
-        <v>1.611361840918328E-05</v>
+        <v>0.0001841413102599936</v>
       </c>
       <c r="T8">
-        <v>1.611361840918327E-05</v>
+        <v>0.0001841413102599936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.877551</v>
       </c>
       <c r="O9">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P9">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q9">
-        <v>3.079176592790333</v>
+        <v>3.079176592790334</v>
       </c>
       <c r="R9">
-        <v>27.71258933511299</v>
+        <v>27.712589335113</v>
       </c>
       <c r="S9">
-        <v>0.0002002906791586005</v>
+        <v>0.0001521395890368093</v>
       </c>
       <c r="T9">
-        <v>0.0002002906791586005</v>
+        <v>0.0001521395890368094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N10">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O10">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P10">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q10">
-        <v>284.9496000445033</v>
+        <v>361.6128763689979</v>
       </c>
       <c r="R10">
-        <v>2564.546400400529</v>
+        <v>3254.515887320981</v>
       </c>
       <c r="S10">
-        <v>0.01853506845061008</v>
+        <v>0.01786699552406737</v>
       </c>
       <c r="T10">
-        <v>0.01853506845061008</v>
+        <v>0.01786699552406737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N11">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O11">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P11">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q11">
-        <v>25.32213977737733</v>
+        <v>2.292444448729778</v>
       </c>
       <c r="R11">
-        <v>227.899257996396</v>
+        <v>20.632000038568</v>
       </c>
       <c r="S11">
-        <v>0.001647124944257871</v>
+        <v>0.0001132677992993603</v>
       </c>
       <c r="T11">
-        <v>0.001647124944257871</v>
+        <v>0.0001132677992993603</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J12">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N12">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O12">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P12">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q12">
-        <v>2161.587480509522</v>
+        <v>2724.933826234665</v>
       </c>
       <c r="R12">
-        <v>19454.2873245857</v>
+        <v>24524.40443611198</v>
       </c>
       <c r="S12">
-        <v>0.1406044153315829</v>
+        <v>0.1346367445915666</v>
       </c>
       <c r="T12">
-        <v>0.1406044153315829</v>
+        <v>0.1346367445915666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J13">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N13">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O13">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P13">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q13">
-        <v>297.8382525965453</v>
+        <v>80.00156942885835</v>
       </c>
       <c r="R13">
-        <v>2680.544273368907</v>
+        <v>720.014124859725</v>
       </c>
       <c r="S13">
-        <v>0.01937343445375913</v>
+        <v>0.00395281190552849</v>
       </c>
       <c r="T13">
-        <v>0.01937343445375912</v>
+        <v>0.00395281190552849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N14">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O14">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P14">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q14">
-        <v>0.3734519806444445</v>
+        <v>6.820283302792554</v>
       </c>
       <c r="R14">
-        <v>3.3610678258</v>
+        <v>61.382549725133</v>
       </c>
       <c r="S14">
-        <v>2.429186783620549E-05</v>
+        <v>0.0003369846020624535</v>
       </c>
       <c r="T14">
-        <v>2.429186783620549E-05</v>
+        <v>0.0003369846020624536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.877551</v>
       </c>
       <c r="O15">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P15">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q15">
-        <v>4.641971091593667</v>
+        <v>5.634993567366332</v>
       </c>
       <c r="R15">
-        <v>41.777739824343</v>
+        <v>50.71494210629699</v>
       </c>
       <c r="S15">
-        <v>0.0003019455086618975</v>
+        <v>0.0002784204087454732</v>
       </c>
       <c r="T15">
-        <v>0.0003019455086618975</v>
+        <v>0.0002784204087454732</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N16">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O16">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P16">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q16">
-        <v>429.5719216185366</v>
+        <v>661.7633548485766</v>
       </c>
       <c r="R16">
-        <v>3866.14729456683</v>
+        <v>5955.870193637189</v>
       </c>
       <c r="S16">
-        <v>0.02794229214715922</v>
+        <v>0.03269718439728935</v>
       </c>
       <c r="T16">
-        <v>0.02794229214715922</v>
+        <v>0.03269718439728935</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H17">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J17">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N17">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O17">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P17">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q17">
-        <v>38.17404987395067</v>
+        <v>4.195248090799111</v>
       </c>
       <c r="R17">
-        <v>343.566448865556</v>
+        <v>37.757232817192</v>
       </c>
       <c r="S17">
-        <v>0.002483100967119001</v>
+        <v>0.0002072837660354014</v>
       </c>
       <c r="T17">
-        <v>0.002483100967119001</v>
+        <v>0.0002072837660354014</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H18">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J18">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N18">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O18">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P18">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q18">
-        <v>3258.672016398777</v>
+        <v>4986.717753792957</v>
       </c>
       <c r="R18">
-        <v>29328.04814758899</v>
+        <v>44880.45978413662</v>
       </c>
       <c r="S18">
-        <v>0.2119662876263231</v>
+        <v>0.2463896326962892</v>
       </c>
       <c r="T18">
-        <v>0.211966287626323</v>
+        <v>0.2463896326962893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.86906433333333</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H19">
-        <v>47.607193</v>
+        <v>57.791447</v>
       </c>
       <c r="I19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J19">
-        <v>0.2719240776111022</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N19">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O19">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P19">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q19">
-        <v>449.0020357263987</v>
+        <v>146.4054806620583</v>
       </c>
       <c r="R19">
-        <v>4041.018321537588</v>
+        <v>1317.649325958525</v>
       </c>
       <c r="S19">
-        <v>0.02920615949400281</v>
+        <v>0.007233774676260918</v>
       </c>
       <c r="T19">
-        <v>0.0292061594940028</v>
+        <v>0.007233774676260919</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H20">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J20">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N20">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O20">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P20">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q20">
-        <v>0.1376849122888889</v>
+        <v>1.160641652844556</v>
       </c>
       <c r="R20">
-        <v>1.2391642106</v>
+        <v>10.445774875601</v>
       </c>
       <c r="S20">
-        <v>8.955967207857919E-06</v>
+        <v>5.734635177996023E-05</v>
       </c>
       <c r="T20">
-        <v>8.955967207857918E-06</v>
+        <v>5.734635177996025E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H21">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J21">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.877551</v>
       </c>
       <c r="O21">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P21">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q21">
-        <v>1.711409808272333</v>
+        <v>0.9589349822343333</v>
       </c>
       <c r="R21">
-        <v>15.402688274451</v>
+        <v>8.630414840108999</v>
       </c>
       <c r="S21">
-        <v>0.0001113217844082567</v>
+        <v>4.738019068206316E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001113217844082567</v>
+        <v>4.738019068206317E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H22">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J22">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N22">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O22">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P22">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q22">
-        <v>158.3753077109233</v>
+        <v>112.6155732634926</v>
       </c>
       <c r="R22">
-        <v>1425.37776939831</v>
+        <v>1013.540159371433</v>
       </c>
       <c r="S22">
-        <v>0.01030181186023751</v>
+        <v>0.005564243075752391</v>
       </c>
       <c r="T22">
-        <v>0.01030181186023751</v>
+        <v>0.005564243075752392</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H23">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J23">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N23">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O23">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P23">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q23">
-        <v>14.07407372572133</v>
+        <v>0.7139263080471112</v>
       </c>
       <c r="R23">
-        <v>126.666663531492</v>
+        <v>6.425336772424</v>
       </c>
       <c r="S23">
-        <v>0.0009154738937848524</v>
+        <v>3.527451311599716E-05</v>
       </c>
       <c r="T23">
-        <v>0.0009154738937848524</v>
+        <v>3.527451311599716E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H24">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J24">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N24">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O24">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P24">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q24">
-        <v>1201.412749189008</v>
+        <v>848.6146511922378</v>
       </c>
       <c r="R24">
-        <v>10812.71474270107</v>
+        <v>7637.531860730141</v>
       </c>
       <c r="S24">
-        <v>0.07814809194389485</v>
+        <v>0.04192935364126209</v>
       </c>
       <c r="T24">
-        <v>0.07814809194389484</v>
+        <v>0.0419293536412621</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.850633666666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H25">
-        <v>17.551901</v>
+        <v>9.834659</v>
       </c>
       <c r="I25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J25">
-        <v>0.100253432075829</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N25">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O25">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P25">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q25">
-        <v>165.5388352736573</v>
+        <v>24.91455142215833</v>
       </c>
       <c r="R25">
-        <v>1489.849517462916</v>
+        <v>224.230962799425</v>
       </c>
       <c r="S25">
-        <v>0.01076777662629568</v>
+        <v>0.001231007543795564</v>
       </c>
       <c r="T25">
-        <v>0.01076777662629568</v>
+        <v>0.001231007543795564</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H26">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I26">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J26">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N26">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O26">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P26">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q26">
-        <v>0.1375235128444444</v>
+        <v>1.826880614200778</v>
       </c>
       <c r="R26">
-        <v>1.2377116156</v>
+        <v>16.441925527807</v>
       </c>
       <c r="S26">
-        <v>8.945468685486941E-06</v>
+        <v>9.026467222263196E-05</v>
       </c>
       <c r="T26">
-        <v>8.945468685486939E-06</v>
+        <v>9.026467222263199E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H27">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I27">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J27">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.877551</v>
       </c>
       <c r="O27">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P27">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q27">
-        <v>1.709403629180666</v>
+        <v>1.509388987573667</v>
       </c>
       <c r="R27">
-        <v>15.384632662626</v>
+        <v>13.584500888163</v>
       </c>
       <c r="S27">
-        <v>0.0001111912888161154</v>
+        <v>7.457767144756279E-05</v>
       </c>
       <c r="T27">
-        <v>0.0001111912888161154</v>
+        <v>7.457767144756282E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H28">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I28">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J28">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N28">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O28">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P28">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q28">
-        <v>158.1896542050066</v>
+        <v>177.2598865015368</v>
       </c>
       <c r="R28">
-        <v>1423.70688784506</v>
+        <v>1595.338978513831</v>
       </c>
       <c r="S28">
-        <v>0.01028973568803118</v>
+        <v>0.008758265553264937</v>
       </c>
       <c r="T28">
-        <v>0.01028973568803118</v>
+        <v>0.008758265553264939</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H29">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I29">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J29">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N29">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O29">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P29">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q29">
-        <v>14.05757556595467</v>
+        <v>1.123738863707556</v>
       </c>
       <c r="R29">
-        <v>126.518180093592</v>
+        <v>10.113649773368</v>
       </c>
       <c r="S29">
-        <v>0.0009144007407762623</v>
+        <v>5.552301524682314E-05</v>
       </c>
       <c r="T29">
-        <v>0.0009144007407762624</v>
+        <v>5.552301524682315E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H30">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I30">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J30">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N30">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O30">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P30">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q30">
-        <v>1200.004407875178</v>
+        <v>1335.741872946109</v>
       </c>
       <c r="R30">
-        <v>10800.0396708766</v>
+        <v>12021.67685651498</v>
       </c>
       <c r="S30">
-        <v>0.07805648380459725</v>
+        <v>0.0659979099883722</v>
       </c>
       <c r="T30">
-        <v>0.07805648380459725</v>
+        <v>0.06599790998837221</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.843775333333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H31">
-        <v>17.531326</v>
+        <v>15.480013</v>
       </c>
       <c r="I31">
-        <v>0.1001359112235315</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J31">
-        <v>0.1001359112235316</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N31">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O31">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P31">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q31">
-        <v>165.3447844106907</v>
+        <v>39.21616193344166</v>
       </c>
       <c r="R31">
-        <v>1488.103059696216</v>
+        <v>352.945457400975</v>
       </c>
       <c r="S31">
-        <v>0.01075515423262527</v>
+        <v>0.001937638384925537</v>
       </c>
       <c r="T31">
-        <v>0.01075515423262527</v>
+        <v>0.001937638384925538</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H32">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I32">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J32">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.02353333333333333</v>
+        <v>0.3540463333333333</v>
       </c>
       <c r="N32">
-        <v>0.0706</v>
+        <v>1.062139</v>
       </c>
       <c r="O32">
-        <v>8.933327291063579E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="P32">
-        <v>8.933327291063576E-05</v>
+        <v>0.001173576485651621</v>
       </c>
       <c r="Q32">
-        <v>0.3558360804444445</v>
+        <v>7.522592268557888</v>
       </c>
       <c r="R32">
-        <v>3.202524724</v>
+        <v>67.70333041702101</v>
       </c>
       <c r="S32">
-        <v>2.314600935465255E-05</v>
+        <v>0.0003716851118281433</v>
       </c>
       <c r="T32">
-        <v>2.314600935465254E-05</v>
+        <v>0.0003716851118281434</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H33">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I33">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J33">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.877551</v>
       </c>
       <c r="O33">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920424</v>
       </c>
       <c r="P33">
-        <v>0.00111040372487254</v>
+        <v>0.0009696218842920425</v>
       </c>
       <c r="Q33">
-        <v>4.423007198726666</v>
+        <v>6.215249009654332</v>
       </c>
       <c r="R33">
-        <v>39.80706478854</v>
+        <v>55.937241086889</v>
       </c>
       <c r="S33">
-        <v>0.0002877026013482251</v>
+        <v>0.0003070903540590253</v>
       </c>
       <c r="T33">
-        <v>0.0002877026013482251</v>
+        <v>0.0003070903540590253</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H34">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I34">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J34">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>27.06976999999999</v>
+        <v>34.35266233333333</v>
       </c>
       <c r="N34">
-        <v>81.20930999999999</v>
+        <v>103.057987</v>
       </c>
       <c r="O34">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="P34">
-        <v>0.1027576976361816</v>
+        <v>0.1138706235264786</v>
       </c>
       <c r="Q34">
-        <v>409.3088182152666</v>
+        <v>729.907494423366</v>
       </c>
       <c r="R34">
-        <v>3683.7793639374</v>
+        <v>6569.167449810293</v>
       </c>
       <c r="S34">
-        <v>0.02662424148647136</v>
+        <v>0.03606413042255142</v>
       </c>
       <c r="T34">
-        <v>0.02662424148647136</v>
+        <v>0.03606413042255143</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H35">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I35">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J35">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.405564</v>
+        <v>0.2177786666666667</v>
       </c>
       <c r="N35">
-        <v>7.216692</v>
+        <v>0.653336</v>
       </c>
       <c r="O35">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="P35">
-        <v>0.009131596543172832</v>
+        <v>0.0007218826978669341</v>
       </c>
       <c r="Q35">
-        <v>36.37336253618667</v>
+        <v>4.627247791833778</v>
       </c>
       <c r="R35">
-        <v>327.36026282568</v>
+        <v>41.645230126504</v>
       </c>
       <c r="S35">
-        <v>0.002365971962346263</v>
+        <v>0.0002286285168149855</v>
       </c>
       <c r="T35">
-        <v>0.002365971962346263</v>
+        <v>0.0002286285168149855</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H36">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I36">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J36">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>205.3474576666667</v>
+        <v>258.8644866666667</v>
       </c>
       <c r="N36">
-        <v>616.042373</v>
+        <v>776.5934600000001</v>
       </c>
       <c r="O36">
-        <v>0.7795054027156471</v>
+        <v>0.8580720824363222</v>
       </c>
       <c r="P36">
-        <v>0.7795054027156469</v>
+        <v>0.8580720824363223</v>
       </c>
       <c r="Q36">
-        <v>3104.958971614936</v>
+        <v>5500.217916872104</v>
       </c>
       <c r="R36">
-        <v>27944.63074453442</v>
+        <v>49501.96125184894</v>
       </c>
       <c r="S36">
-        <v>0.2019677411943392</v>
+        <v>0.2717612544357234</v>
       </c>
       <c r="T36">
-        <v>0.2019677411943392</v>
+        <v>0.2717612544357235</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.12051333333334</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H37">
-        <v>45.36154000000001</v>
+        <v>63.742439</v>
       </c>
       <c r="I37">
-        <v>0.259097294888172</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J37">
-        <v>0.259097294888172</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.294172</v>
+        <v>7.600025</v>
       </c>
       <c r="N37">
-        <v>84.882516</v>
+        <v>22.800075</v>
       </c>
       <c r="O37">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="P37">
-        <v>0.1074055661072154</v>
+        <v>0.02519221296938855</v>
       </c>
       <c r="Q37">
-        <v>427.8224049816267</v>
+        <v>161.4813766536583</v>
       </c>
       <c r="R37">
-        <v>3850.40164483464</v>
+        <v>1453.332389882925</v>
       </c>
       <c r="S37">
-        <v>0.02782849163431224</v>
+        <v>0.007978662327685035</v>
       </c>
       <c r="T37">
-        <v>0.02782849163431224</v>
+        <v>0.007978662327685036</v>
       </c>
     </row>
   </sheetData>
